--- a/Munkafüzet1.xlsx
+++ b/Munkafüzet1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\iskola\IKT2-Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\halozatProjektek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BEF20C-2425-4FCB-980A-43FA2E8F3A09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A318FD-0755-4DEE-8401-88F13597ACCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
   </bookViews>
@@ -84,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,17 +137,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFCE4D6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -452,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E52708-4D1F-4658-B09E-637D902EB613}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +659,9 @@
       <c r="F12" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
         <v>67</v>
@@ -656,9 +671,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="3">
         <f>LOG(C14+2,2)</f>
         <v>6.10852445677817</v>
@@ -673,7 +686,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="3">
@@ -695,10 +708,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="str">
+        <f>DEC2BIN(B16,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" ref="C17:E17" si="3">DEC2BIN(C16,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>01000000</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,10 +754,22 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3" t="str">
+        <f>DEC2BIN(B19,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" ref="C20:E20" si="4">DEC2BIN(C19,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>00000000</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>01111111</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,10 +800,22 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="3" t="str">
+        <f>DEC2BIN(B22,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" ref="C23:E23" si="5">DEC2BIN(C22,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>11111111</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>11100000</v>
+      </c>
       <c r="F23" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
